--- a/test/vorlage - Copy.xlsx
+++ b/test/vorlage - Copy.xlsx
@@ -34,13 +34,13 @@
     <t>Max error</t>
   </si>
   <si>
-    <t>Standardabweichung Beispiel 1</t>
+    <t>Genauigkeit Lösung 0</t>
   </si>
   <si>
-    <t>Standardabweichung Beispiel 2</t>
+    <t>Standardabweichung Lösung 1 Versuch 0</t>
   </si>
   <si>
-    <t>Genauigkeit Lösung 0</t>
+    <t>Standardabweichung Lösung 1 Versuch 1</t>
   </si>
 </sst>
 </file>
@@ -76,8 +76,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -113,7 +114,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -124,7 +125,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standardabweichung Beispiel 1</c:v>
+                  <c:v>Standardabweichung Lösung 1 Versuch 0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -155,121 +156,147 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$5</c:f>
+              <c:f>Tabelle1!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>594.97358333333295</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110</c:v>
+                  <c:v>594.93766666666704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>594.80983333333302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>594.51658333333296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>594.08699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>592.89791666666702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>590.91674999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>586.01441666666699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>578.59483333333299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>569.36458333333303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>556.86483333333297</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>540.0575</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>518.56283333333295</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>491.57358333333298</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>459.505</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>424.65008333333299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>380.22275000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>324.04216666666701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>250.49233333333299</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82.830500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$5</c:f>
+              <c:f>Tabelle1!$C$3:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5902771.0418897802</c:v>
+                  <c:v>536256.89762306004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5802771.0418897802</c:v>
+                  <c:v>536257.11881015799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5802771.0418897802</c:v>
+                  <c:v>536257.52139061701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>536259.49543059699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>536266.39014271798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>536277.66049011296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>536297.704914478</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>536338.35191726999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>536410.60884598398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>536545.86563322402</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>536771.78365032503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>537155.30825686303</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>537831.54792505805</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>539048.36515151698</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>541265.37791638798</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>545772.61051449704</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>555157.81692332705</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>581284.93136310205</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>685337.61995319603</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7602846.7042218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Standardabweichung Beispiel 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle1!$D$3:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>130</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle1!$F$3:$F$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>5902771.0418897802</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3052771.0418897802</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1808771.04188978</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$I$1</c:f>
@@ -312,7 +339,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130</c:v>
+                  <c:v>594.97358333333295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -332,11 +359,11 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$L$1</c:f>
@@ -396,7 +423,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -406,11 +433,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="403189448"/>
-        <c:axId val="403191016"/>
+        <c:axId val="293806272"/>
+        <c:axId val="293808624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="403189448"/>
+        <c:axId val="293806272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -532,12 +559,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403191016"/>
+        <c:crossAx val="293808624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="403191016"/>
+        <c:axId val="293808624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -650,7 +677,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403189448"/>
+        <c:crossAx val="293806272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1291,16 +1318,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1609,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,25 +1647,26 @@
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.5703125" customWidth="1"/>
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L1" t="s">
         <v>4</v>
@@ -1672,24 +1700,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>50</v>
+        <v>594.97358333333295</v>
       </c>
       <c r="B3">
-        <f>40014198.8548718</f>
-        <v>40014198.854871802</v>
+        <v>268484632.29600298</v>
       </c>
       <c r="C3">
-        <v>5902771.0418897802</v>
+        <v>536256.89762306004</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>594.55391666666696</v>
       </c>
       <c r="E3">
-        <f>30014598.8548718</f>
-        <v>30014598.854871798</v>
+        <v>268484663.87688202</v>
       </c>
       <c r="F3">
-        <v>5902771.0418897802</v>
+        <v>701225.48079546704</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1706,28 +1732,26 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>110</v>
+        <v>594.93766666666704</v>
       </c>
       <c r="B4">
-        <f>30014198.8548718</f>
-        <v>30014198.854871798</v>
+        <v>268484632.29600298</v>
       </c>
       <c r="C4">
-        <v>5802771.0418897802</v>
+        <v>536257.11881015799</v>
       </c>
       <c r="D4">
-        <v>96</v>
+        <v>592.93358333333299</v>
       </c>
       <c r="E4">
-        <f>40014198.8548718</f>
-        <v>40014198.854871802</v>
+        <v>268484663.87688202</v>
       </c>
       <c r="F4">
-        <v>3052771.0418897802</v>
+        <v>701233.80857231899</v>
       </c>
       <c r="H4">
         <f>MAX(A3:A5,D3:D5)</f>
-        <v>130</v>
+        <v>594.97358333333295</v>
       </c>
       <c r="I4">
         <v>5802771.0418897802</v>
@@ -1735,28 +1759,269 @@
       <c r="J4">
         <v>74.187416666666707</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>30014198.854871798</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>120</v>
+        <v>594.80983333333302</v>
       </c>
       <c r="B5">
-        <v>25014198.854871798</v>
+        <v>268484632.29600298</v>
       </c>
       <c r="C5">
-        <v>5802771.0418897802</v>
+        <v>536257.52139061701</v>
       </c>
       <c r="D5">
-        <v>130</v>
+        <v>586.04508333333297</v>
       </c>
       <c r="E5">
-        <v>20014198.854871798</v>
+        <v>268484663.87688202</v>
       </c>
       <c r="F5">
-        <v>1808771.04188978</v>
+        <v>701267.61320735305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>594.51658333333296</v>
+      </c>
+      <c r="B6">
+        <v>268484632.29600298</v>
+      </c>
+      <c r="C6">
+        <v>536259.49543059699</v>
+      </c>
+      <c r="D6">
+        <v>569.41283333333297</v>
+      </c>
+      <c r="E6">
+        <v>268484663.87688202</v>
+      </c>
+      <c r="F6">
+        <v>701373.22500265797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>594.08699999999999</v>
+      </c>
+      <c r="B7">
+        <v>268484632.29600298</v>
+      </c>
+      <c r="C7">
+        <v>536266.39014271798</v>
+      </c>
+      <c r="D7">
+        <v>540.15283333333298</v>
+      </c>
+      <c r="E7">
+        <v>268484663.87688202</v>
+      </c>
+      <c r="F7">
+        <v>701665.174933673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>592.89791666666702</v>
+      </c>
+      <c r="B8">
+        <v>268484632.29600298</v>
+      </c>
+      <c r="C8">
+        <v>536277.66049011296</v>
+      </c>
+      <c r="D8">
+        <v>491.61124999999998</v>
+      </c>
+      <c r="E8">
+        <v>268484663.87688202</v>
+      </c>
+      <c r="F8">
+        <v>702543.80874204205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>590.91674999999998</v>
+      </c>
+      <c r="B9">
+        <v>268484632.29600298</v>
+      </c>
+      <c r="C9">
+        <v>536297.704914478</v>
+      </c>
+      <c r="D9">
+        <v>424.68391666666702</v>
+      </c>
+      <c r="E9">
+        <v>268484663.87688202</v>
+      </c>
+      <c r="F9">
+        <v>706378.78932971996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>586.01441666666699</v>
+      </c>
+      <c r="B10">
+        <v>268484632.29600298</v>
+      </c>
+      <c r="C10">
+        <v>536338.35191726999</v>
+      </c>
+      <c r="D10">
+        <v>324.04183333333299</v>
+      </c>
+      <c r="E10">
+        <v>268484663.87688202</v>
+      </c>
+      <c r="F10">
+        <v>731111.43285389105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>578.59483333333299</v>
+      </c>
+      <c r="B11">
+        <v>268484632.29600298</v>
+      </c>
+      <c r="C11">
+        <v>536410.60884598398</v>
+      </c>
+      <c r="D11">
+        <v>154.31541666666701</v>
+      </c>
+      <c r="E11">
+        <v>268484663.87688202</v>
+      </c>
+      <c r="F11">
+        <v>1674716.9459021699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>569.36458333333303</v>
+      </c>
+      <c r="B12">
+        <v>268484632.29600298</v>
+      </c>
+      <c r="C12">
+        <v>536545.86563322402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>556.86483333333297</v>
+      </c>
+      <c r="B13">
+        <v>268484632.29600298</v>
+      </c>
+      <c r="C13">
+        <v>536771.78365032503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>540.0575</v>
+      </c>
+      <c r="B14">
+        <v>268484632.29600298</v>
+      </c>
+      <c r="C14">
+        <v>537155.30825686303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>518.56283333333295</v>
+      </c>
+      <c r="B15">
+        <v>268484632.29600298</v>
+      </c>
+      <c r="C15">
+        <v>537831.54792505805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>491.57358333333298</v>
+      </c>
+      <c r="B16">
+        <v>268484632.29600298</v>
+      </c>
+      <c r="C16">
+        <v>539048.36515151698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>459.505</v>
+      </c>
+      <c r="B17">
+        <v>268484632.29600298</v>
+      </c>
+      <c r="C17">
+        <v>541265.37791638798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>424.65008333333299</v>
+      </c>
+      <c r="B18">
+        <v>268484632.29600298</v>
+      </c>
+      <c r="C18">
+        <v>545772.61051449704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>380.22275000000002</v>
+      </c>
+      <c r="B19">
+        <v>268484632.29600298</v>
+      </c>
+      <c r="C19">
+        <v>555157.81692332705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>324.04216666666701</v>
+      </c>
+      <c r="B20">
+        <v>268484632.29600298</v>
+      </c>
+      <c r="C20">
+        <v>581284.93136310205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>250.49233333333299</v>
+      </c>
+      <c r="B21">
+        <v>268484632.29600298</v>
+      </c>
+      <c r="C21">
+        <v>685337.61995319603</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>82.830500000000001</v>
+      </c>
+      <c r="B22">
+        <v>268484632.29600298</v>
+      </c>
+      <c r="C22">
+        <v>7602846.7042218</v>
       </c>
     </row>
   </sheetData>
